--- a/Commands Work Book.xlsx
+++ b/Commands Work Book.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>node -v</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Username / Password</t>
+  </si>
+  <si>
+    <t>https://github.com/jais3738/Angular.git</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,6 +537,9 @@
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -549,9 +555,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
